--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Review Count</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -461,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,8 +478,9 @@
         <v>4.8</v>
       </c>
       <c r="E2" t="n">
-        <v>58801</v>
-      </c>
+        <v>59459</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -482,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -494,8 +500,9 @@
         <v>4.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4083</v>
-      </c>
+        <v>4133</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -503,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,6 +524,7 @@
       <c r="E4" t="n">
         <v>120</v>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -524,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -536,7 +544,10 @@
         <v>4.6</v>
       </c>
       <c r="E5" t="n">
-        <v>378293</v>
+        <v>383747</v>
+      </c>
+      <c r="F5" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -545,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -557,7 +568,10 @@
         <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>4703570</v>
+        <v>4717709</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +580,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -578,7 +592,10 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>41729</v>
+        <v>42009</v>
+      </c>
+      <c r="F7" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +604,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -599,8 +616,9 @@
         <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>314584</v>
-      </c>
+        <v>316632</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -608,7 +626,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -620,7 +638,10 @@
         <v>4.8</v>
       </c>
       <c r="E9" t="n">
-        <v>2414180</v>
+        <v>2413697</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -629,7 +650,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -641,7 +662,10 @@
         <v>4.8</v>
       </c>
       <c r="E10" t="n">
-        <v>42659</v>
+        <v>42682</v>
+      </c>
+      <c r="F10" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -650,7 +674,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -662,7 +686,10 @@
         <v>4.7</v>
       </c>
       <c r="E11" t="n">
-        <v>22604</v>
+        <v>23149</v>
+      </c>
+      <c r="F11" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -671,7 +698,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -683,7 +710,10 @@
         <v>4.8</v>
       </c>
       <c r="E12" t="n">
-        <v>1917498</v>
+        <v>1941261</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +722,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -704,8 +734,9 @@
         <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1047247</v>
-      </c>
+        <v>1047340</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -713,7 +744,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -725,7 +756,10 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>253322</v>
+        <v>254538</v>
+      </c>
+      <c r="F14" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -734,7 +768,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -746,7 +780,10 @@
         <v>4.4</v>
       </c>
       <c r="E15" t="n">
-        <v>112834</v>
+        <v>113626</v>
+      </c>
+      <c r="F15" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="16">
@@ -755,7 +792,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -767,7 +804,10 @@
         <v>4.4</v>
       </c>
       <c r="E16" t="n">
-        <v>67156</v>
+        <v>68853</v>
+      </c>
+      <c r="F16" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +816,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -788,8 +828,9 @@
         <v>4.3</v>
       </c>
       <c r="E17" t="n">
-        <v>161</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -797,7 +838,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -809,7 +850,10 @@
         <v>4.7</v>
       </c>
       <c r="E18" t="n">
-        <v>394024</v>
+        <v>398841</v>
+      </c>
+      <c r="F18" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -818,7 +862,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -830,7 +874,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>3992354</v>
+        <v>3992115</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -839,7 +886,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -851,7 +898,10 @@
         <v>4.6</v>
       </c>
       <c r="E20" t="n">
-        <v>3939</v>
+        <v>4048</v>
+      </c>
+      <c r="F20" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -860,7 +910,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -872,8 +922,9 @@
         <v>3.3</v>
       </c>
       <c r="E21" t="n">
-        <v>6392</v>
-      </c>
+        <v>6450</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -881,7 +932,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -893,7 +944,10 @@
         <v>2.8</v>
       </c>
       <c r="E22" t="n">
-        <v>2915</v>
+        <v>3008</v>
+      </c>
+      <c r="F22" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +956,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -914,7 +968,10 @@
         <v>4.4</v>
       </c>
       <c r="E23" t="n">
-        <v>43505</v>
+        <v>44199</v>
+      </c>
+      <c r="F23" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -923,7 +980,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -935,7 +992,10 @@
         <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>834005</v>
+        <v>845713</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -944,7 +1004,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -956,8 +1016,9 @@
         <v>3.5</v>
       </c>
       <c r="E25" t="n">
-        <v>202</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -965,7 +1026,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -977,8 +1038,9 @@
         <v>4.2</v>
       </c>
       <c r="E26" t="n">
-        <v>1505</v>
-      </c>
+        <v>1523</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -986,7 +1048,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1000,6 +1062,7 @@
       <c r="E27" t="n">
         <v>13</v>
       </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1007,7 +1070,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1016,11 +1079,12 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1028,7 +1092,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1040,8 +1104,9 @@
         <v>1.9</v>
       </c>
       <c r="E29" t="n">
-        <v>294</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1049,7 +1114,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1058,11 +1123,12 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1070,7 +1136,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1082,8 +1148,9 @@
         <v>1.4</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1091,7 +1158,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1103,8 +1170,9 @@
         <v>1.4</v>
       </c>
       <c r="E32" t="n">
-        <v>1335</v>
-      </c>
+        <v>1348</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1112,7 +1180,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1124,8 +1192,9 @@
         <v>4.4</v>
       </c>
       <c r="E33" t="n">
-        <v>25427</v>
-      </c>
+        <v>26421</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1133,7 +1202,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1145,8 +1214,9 @@
         <v>1.9</v>
       </c>
       <c r="E34" t="n">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1154,7 +1224,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1166,8 +1236,9 @@
         <v>4.6</v>
       </c>
       <c r="E35" t="n">
-        <v>12478</v>
-      </c>
+        <v>12757</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1175,7 +1246,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1187,8 +1258,9 @@
         <v>1.3</v>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1196,7 +1268,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1208,8 +1280,9 @@
         <v>4.6</v>
       </c>
       <c r="E37" t="n">
-        <v>3094</v>
-      </c>
+        <v>3148</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1217,7 +1290,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-04-06 20:38:30</t>
+          <t>2023-04-27 13:33:52</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1231,6 +1304,7 @@
       <c r="E38" t="n">
         <v>22</v>
       </c>
+      <c r="F38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
         <v>4.8</v>
       </c>
       <c r="E2" t="n">
-        <v>59459</v>
+        <v>60564</v>
       </c>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,7 +500,7 @@
         <v>4.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4133</v>
+        <v>4256</v>
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,10 +544,10 @@
         <v>4.6</v>
       </c>
       <c r="E5" t="n">
-        <v>383747</v>
+        <v>390886</v>
       </c>
       <c r="F5" t="n">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,10 +568,10 @@
         <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>4717709</v>
+        <v>4733942</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -592,10 +592,10 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>42009</v>
+        <v>42553</v>
       </c>
       <c r="F7" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -604,7 +604,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>316632</v>
+        <v>319482</v>
       </c>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -638,7 +638,7 @@
         <v>4.8</v>
       </c>
       <c r="E9" t="n">
-        <v>2413697</v>
+        <v>2412896</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
@@ -650,7 +650,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -662,10 +662,10 @@
         <v>4.8</v>
       </c>
       <c r="E10" t="n">
-        <v>42682</v>
+        <v>42734</v>
       </c>
       <c r="F10" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -686,10 +686,10 @@
         <v>4.7</v>
       </c>
       <c r="E11" t="n">
-        <v>23149</v>
+        <v>23993</v>
       </c>
       <c r="F11" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -698,7 +698,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -710,10 +710,10 @@
         <v>4.8</v>
       </c>
       <c r="E12" t="n">
-        <v>1941261</v>
+        <v>1973401</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -722,7 +722,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -734,7 +734,7 @@
         <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1047340</v>
+        <v>1047459</v>
       </c>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -756,10 +756,10 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>254538</v>
+        <v>256189</v>
       </c>
       <c r="F14" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -768,7 +768,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -780,10 +780,10 @@
         <v>4.4</v>
       </c>
       <c r="E15" t="n">
-        <v>113626</v>
+        <v>114733</v>
       </c>
       <c r="F15" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
@@ -792,7 +792,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -804,10 +804,10 @@
         <v>4.4</v>
       </c>
       <c r="E16" t="n">
-        <v>68853</v>
+        <v>72015</v>
       </c>
       <c r="F16" t="n">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -816,7 +816,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -828,7 +828,7 @@
         <v>4.3</v>
       </c>
       <c r="E17" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -850,10 +850,10 @@
         <v>4.7</v>
       </c>
       <c r="E18" t="n">
-        <v>398841</v>
+        <v>405414</v>
       </c>
       <c r="F18" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -862,7 +862,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -874,10 +874,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>3992115</v>
+        <v>3991605</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -886,7 +886,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -898,11 +898,9 @@
         <v>4.6</v>
       </c>
       <c r="E20" t="n">
-        <v>4048</v>
-      </c>
-      <c r="F20" t="n">
-        <v>77</v>
-      </c>
+        <v>4103</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -910,7 +908,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -922,7 +920,7 @@
         <v>3.3</v>
       </c>
       <c r="E21" t="n">
-        <v>6450</v>
+        <v>6525</v>
       </c>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -932,7 +930,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -944,10 +942,10 @@
         <v>2.8</v>
       </c>
       <c r="E22" t="n">
-        <v>3008</v>
+        <v>3091</v>
       </c>
       <c r="F22" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -956,7 +954,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -968,10 +966,10 @@
         <v>4.4</v>
       </c>
       <c r="E23" t="n">
-        <v>44199</v>
+        <v>45091</v>
       </c>
       <c r="F23" t="n">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -980,7 +978,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -992,10 +990,10 @@
         <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>845713</v>
+        <v>860618</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1004,7 +1002,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1016,7 +1014,7 @@
         <v>3.5</v>
       </c>
       <c r="E25" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1026,7 +1024,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1038,7 +1036,7 @@
         <v>4.2</v>
       </c>
       <c r="E26" t="n">
-        <v>1523</v>
+        <v>1563</v>
       </c>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -1048,7 +1046,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1057,10 +1055,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -1070,7 +1068,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1092,7 +1090,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1104,7 +1102,7 @@
         <v>1.9</v>
       </c>
       <c r="E29" t="n">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -1114,7 +1112,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1136,7 +1134,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1145,10 +1143,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F31" t="inlineStr"/>
     </row>
@@ -1158,7 +1156,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1170,7 +1168,7 @@
         <v>1.4</v>
       </c>
       <c r="E32" t="n">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="F32" t="inlineStr"/>
     </row>
@@ -1180,7 +1178,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1192,7 +1190,7 @@
         <v>4.4</v>
       </c>
       <c r="E33" t="n">
-        <v>26421</v>
+        <v>27433</v>
       </c>
       <c r="F33" t="inlineStr"/>
     </row>
@@ -1202,20 +1200,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>My SECTV</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E34" t="n">
-        <v>43</v>
-      </c>
+          <t>App Store</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1224,7 +1218,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1236,7 +1230,7 @@
         <v>4.6</v>
       </c>
       <c r="E35" t="n">
-        <v>12757</v>
+        <v>13130</v>
       </c>
       <c r="F35" t="inlineStr"/>
     </row>
@@ -1246,7 +1240,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1258,7 +1252,7 @@
         <v>1.3</v>
       </c>
       <c r="E36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" t="inlineStr"/>
     </row>
@@ -1268,7 +1262,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1280,7 +1274,7 @@
         <v>4.6</v>
       </c>
       <c r="E37" t="n">
-        <v>3148</v>
+        <v>3215</v>
       </c>
       <c r="F37" t="inlineStr"/>
     </row>
@@ -1290,7 +1284,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-04-27 13:33:52</t>
+          <t>2023-05-25 13:07:26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
         <v>4.8</v>
       </c>
       <c r="E2" t="n">
-        <v>60564</v>
+        <v>60793</v>
       </c>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,7 +500,7 @@
         <v>4.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4256</v>
+        <v>4287</v>
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -522,7 +522,7 @@
         <v>4.6</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,10 +544,10 @@
         <v>4.6</v>
       </c>
       <c r="E5" t="n">
-        <v>390886</v>
+        <v>392599</v>
       </c>
       <c r="F5" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,10 +568,10 @@
         <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>4733942</v>
+        <v>4737939</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -592,10 +592,10 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>42553</v>
+        <v>42661</v>
       </c>
       <c r="F7" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -604,7 +604,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>319482</v>
+        <v>320105</v>
       </c>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -638,10 +638,10 @@
         <v>4.8</v>
       </c>
       <c r="E9" t="n">
-        <v>2412896</v>
+        <v>2412940</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -662,10 +662,10 @@
         <v>4.8</v>
       </c>
       <c r="E10" t="n">
-        <v>42734</v>
+        <v>42741</v>
       </c>
       <c r="F10" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -686,10 +686,10 @@
         <v>4.7</v>
       </c>
       <c r="E11" t="n">
-        <v>23993</v>
+        <v>24156</v>
       </c>
       <c r="F11" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -698,7 +698,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -710,10 +710,10 @@
         <v>4.8</v>
       </c>
       <c r="E12" t="n">
-        <v>1973401</v>
+        <v>1980539</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -722,7 +722,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -756,10 +756,10 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>256189</v>
+        <v>256574</v>
       </c>
       <c r="F14" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -768,7 +768,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -780,10 +780,10 @@
         <v>4.4</v>
       </c>
       <c r="E15" t="n">
-        <v>114733</v>
+        <v>115000</v>
       </c>
       <c r="F15" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
@@ -792,7 +792,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -804,10 +804,10 @@
         <v>4.4</v>
       </c>
       <c r="E16" t="n">
-        <v>72015</v>
+        <v>73089</v>
       </c>
       <c r="F16" t="n">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -816,7 +816,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -828,7 +828,7 @@
         <v>4.3</v>
       </c>
       <c r="E17" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -850,10 +850,10 @@
         <v>4.7</v>
       </c>
       <c r="E18" t="n">
-        <v>405414</v>
+        <v>406819</v>
       </c>
       <c r="F18" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -862,7 +862,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -874,10 +874,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>3991605</v>
+        <v>3991597</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -886,7 +886,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -898,7 +898,7 @@
         <v>4.6</v>
       </c>
       <c r="E20" t="n">
-        <v>4103</v>
+        <v>4109</v>
       </c>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -920,7 +920,7 @@
         <v>3.3</v>
       </c>
       <c r="E21" t="n">
-        <v>6525</v>
+        <v>6542</v>
       </c>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -942,10 +942,10 @@
         <v>2.8</v>
       </c>
       <c r="E22" t="n">
-        <v>3091</v>
+        <v>3104</v>
       </c>
       <c r="F22" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -954,7 +954,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -966,10 +966,10 @@
         <v>4.4</v>
       </c>
       <c r="E23" t="n">
-        <v>45091</v>
+        <v>45126</v>
       </c>
       <c r="F23" t="n">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
@@ -978,7 +978,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -990,7 +990,7 @@
         <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>860618</v>
+        <v>864141</v>
       </c>
       <c r="F24" t="n">
         <v>7</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1036,7 +1036,7 @@
         <v>4.2</v>
       </c>
       <c r="E26" t="n">
-        <v>1563</v>
+        <v>1575</v>
       </c>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="E28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="E29" t="n">
         <v>306</v>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1124,7 +1124,7 @@
         <v>1.6</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" t="inlineStr"/>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1168,7 +1168,7 @@
         <v>1.4</v>
       </c>
       <c r="E32" t="n">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="F32" t="inlineStr"/>
     </row>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>4.4</v>
       </c>
       <c r="E33" t="n">
-        <v>27433</v>
+        <v>27642</v>
       </c>
       <c r="F33" t="inlineStr"/>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1230,7 +1230,7 @@
         <v>4.6</v>
       </c>
       <c r="E35" t="n">
-        <v>13130</v>
+        <v>13187</v>
       </c>
       <c r="F35" t="inlineStr"/>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E36" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" t="inlineStr"/>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1274,7 +1274,7 @@
         <v>4.6</v>
       </c>
       <c r="E37" t="n">
-        <v>3215</v>
+        <v>3227</v>
       </c>
       <c r="F37" t="inlineStr"/>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-05-25 13:07:26</t>
+          <t>2023-06-01 12:25:55</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
         <v>4.8</v>
       </c>
       <c r="E2" t="n">
-        <v>60793</v>
+        <v>61732</v>
       </c>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,7 +500,7 @@
         <v>4.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4287</v>
+        <v>4419</v>
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="E4" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,10 +544,10 @@
         <v>4.6</v>
       </c>
       <c r="E5" t="n">
-        <v>392599</v>
+        <v>398950</v>
       </c>
       <c r="F5" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,10 +568,10 @@
         <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>4737939</v>
+        <v>4754128</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -592,10 +592,10 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>42661</v>
+        <v>43142</v>
       </c>
       <c r="F7" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -604,7 +604,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>320105</v>
+        <v>322205</v>
       </c>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -638,10 +638,10 @@
         <v>4.8</v>
       </c>
       <c r="E9" t="n">
-        <v>2412940</v>
+        <v>2412804</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -662,10 +662,10 @@
         <v>4.8</v>
       </c>
       <c r="E10" t="n">
-        <v>42741</v>
+        <v>42795</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -686,10 +686,10 @@
         <v>4.7</v>
       </c>
       <c r="E11" t="n">
-        <v>24156</v>
+        <v>24949</v>
       </c>
       <c r="F11" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -698,7 +698,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -710,10 +710,10 @@
         <v>4.8</v>
       </c>
       <c r="E12" t="n">
-        <v>1980539</v>
+        <v>2009585</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -722,7 +722,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -734,7 +734,7 @@
         <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1047459</v>
+        <v>1047308</v>
       </c>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -756,10 +756,10 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>256574</v>
+        <v>258047</v>
       </c>
       <c r="F14" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -768,7 +768,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -780,11 +780,9 @@
         <v>4.4</v>
       </c>
       <c r="E15" t="n">
-        <v>115000</v>
-      </c>
-      <c r="F15" t="n">
-        <v>176</v>
-      </c>
+        <v>116036</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,7 +790,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -804,10 +802,10 @@
         <v>4.4</v>
       </c>
       <c r="E16" t="n">
-        <v>73089</v>
+        <v>76978</v>
       </c>
       <c r="F16" t="n">
-        <v>103</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -816,7 +814,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -828,7 +826,7 @@
         <v>4.3</v>
       </c>
       <c r="E17" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -838,7 +836,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -850,10 +848,10 @@
         <v>4.7</v>
       </c>
       <c r="E18" t="n">
-        <v>406819</v>
+        <v>411555</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -862,7 +860,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -874,10 +872,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>3991597</v>
+        <v>3991298</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -886,7 +884,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -898,7 +896,7 @@
         <v>4.6</v>
       </c>
       <c r="E20" t="n">
-        <v>4109</v>
+        <v>4149</v>
       </c>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -908,7 +906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -920,7 +918,7 @@
         <v>3.3</v>
       </c>
       <c r="E21" t="n">
-        <v>6542</v>
+        <v>6602</v>
       </c>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -930,7 +928,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -942,10 +940,10 @@
         <v>2.8</v>
       </c>
       <c r="E22" t="n">
-        <v>3104</v>
+        <v>3161</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -954,7 +952,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -966,11 +964,9 @@
         <v>4.4</v>
       </c>
       <c r="E23" t="n">
-        <v>45126</v>
-      </c>
-      <c r="F23" t="n">
-        <v>197</v>
-      </c>
+        <v>45220</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -978,7 +974,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -990,10 +986,10 @@
         <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>864141</v>
+        <v>876771</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1002,7 +998,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1011,10 +1007,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="E25" t="n">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1024,7 +1020,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1036,7 +1032,7 @@
         <v>4.2</v>
       </c>
       <c r="E26" t="n">
-        <v>1575</v>
+        <v>1620</v>
       </c>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -1046,7 +1042,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1068,20 +1064,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RCN Mobile</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E28" t="n">
-        <v>29</v>
-      </c>
+          <t>App Store</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1090,7 +1082,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1102,7 +1094,7 @@
         <v>1.8</v>
       </c>
       <c r="E29" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -1112,7 +1104,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1124,7 +1116,7 @@
         <v>1.6</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30" t="inlineStr"/>
     </row>
@@ -1134,7 +1126,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1156,7 +1148,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1168,7 +1160,7 @@
         <v>1.4</v>
       </c>
       <c r="E32" t="n">
-        <v>1365</v>
+        <v>1375</v>
       </c>
       <c r="F32" t="inlineStr"/>
     </row>
@@ -1178,7 +1170,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1190,7 +1182,7 @@
         <v>4.4</v>
       </c>
       <c r="E33" t="n">
-        <v>27642</v>
+        <v>28366</v>
       </c>
       <c r="F33" t="inlineStr"/>
     </row>
@@ -1200,16 +1192,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>App Store</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+          <t>SE Next powered by Tivo</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
       <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1230,7 +1226,7 @@
         <v>4.6</v>
       </c>
       <c r="E35" t="n">
-        <v>13187</v>
+        <v>13431</v>
       </c>
       <c r="F35" t="inlineStr"/>
     </row>
@@ -1240,7 +1236,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1252,7 +1248,7 @@
         <v>1.2</v>
       </c>
       <c r="E36" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" t="inlineStr"/>
     </row>
@@ -1262,7 +1258,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1274,7 +1270,7 @@
         <v>4.6</v>
       </c>
       <c r="E37" t="n">
-        <v>3227</v>
+        <v>3296</v>
       </c>
       <c r="F37" t="inlineStr"/>
     </row>
@@ -1284,7 +1280,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-06-01 12:25:55</t>
+          <t>2023-06-26 16:03:50</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>App Rating</t>
+          <t>iOS App Rating</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Review Count</t>
+          <t>iOS Review Count</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Rank</t>
+          <t>iOS Rank</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
         <v>4.8</v>
       </c>
       <c r="E2" t="n">
-        <v>61732</v>
+        <v>61742</v>
       </c>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,7 +500,7 @@
         <v>4.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4419</v>
+        <v>4426</v>
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,10 +544,10 @@
         <v>4.6</v>
       </c>
       <c r="E5" t="n">
-        <v>398950</v>
+        <v>399031</v>
       </c>
       <c r="F5" t="n">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,10 +568,10 @@
         <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>4754128</v>
+        <v>4754388</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -592,7 +592,7 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>43142</v>
+        <v>43149</v>
       </c>
       <c r="F7" t="n">
         <v>93</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>322205</v>
+        <v>322237</v>
       </c>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -638,7 +638,7 @@
         <v>4.8</v>
       </c>
       <c r="E9" t="n">
-        <v>2412804</v>
+        <v>2412812</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
@@ -650,7 +650,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -662,10 +662,10 @@
         <v>4.8</v>
       </c>
       <c r="E10" t="n">
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="F10" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -686,10 +686,10 @@
         <v>4.7</v>
       </c>
       <c r="E11" t="n">
-        <v>24949</v>
+        <v>24958</v>
       </c>
       <c r="F11" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -698,7 +698,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -710,10 +710,10 @@
         <v>4.8</v>
       </c>
       <c r="E12" t="n">
-        <v>2009585</v>
+        <v>2010064</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -722,7 +722,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -734,7 +734,7 @@
         <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1047308</v>
+        <v>1047309</v>
       </c>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -756,10 +756,10 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>258047</v>
+        <v>258060</v>
       </c>
       <c r="F14" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -768,7 +768,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -780,7 +780,7 @@
         <v>4.4</v>
       </c>
       <c r="E15" t="n">
-        <v>116036</v>
+        <v>116043</v>
       </c>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -802,10 +802,10 @@
         <v>4.4</v>
       </c>
       <c r="E16" t="n">
-        <v>76978</v>
+        <v>77035</v>
       </c>
       <c r="F16" t="n">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
@@ -814,7 +814,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -848,7 +848,7 @@
         <v>4.7</v>
       </c>
       <c r="E18" t="n">
-        <v>411555</v>
+        <v>411629</v>
       </c>
       <c r="F18" t="n">
         <v>48</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -872,10 +872,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>3991298</v>
+        <v>3991303</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -884,7 +884,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -918,7 +918,7 @@
         <v>3.3</v>
       </c>
       <c r="E21" t="n">
-        <v>6602</v>
+        <v>6603</v>
       </c>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -943,7 +943,7 @@
         <v>3161</v>
       </c>
       <c r="F22" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -952,7 +952,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -964,7 +964,7 @@
         <v>4.4</v>
       </c>
       <c r="E23" t="n">
-        <v>45220</v>
+        <v>45221</v>
       </c>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -986,10 +986,10 @@
         <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>876771</v>
+        <v>876975</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -998,7 +998,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1010,7 +1010,7 @@
         <v>3.6</v>
       </c>
       <c r="E25" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1064,16 +1064,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>App Store</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+          <t>Astound Mobile</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1082,7 +1086,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1104,7 +1108,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1126,7 +1130,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1148,7 +1152,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1170,7 +1174,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1182,7 +1186,7 @@
         <v>4.4</v>
       </c>
       <c r="E33" t="n">
-        <v>28366</v>
+        <v>28371</v>
       </c>
       <c r="F33" t="inlineStr"/>
     </row>
@@ -1192,7 +1196,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1214,7 +1218,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1226,7 +1230,7 @@
         <v>4.6</v>
       </c>
       <c r="E35" t="n">
-        <v>13431</v>
+        <v>13437</v>
       </c>
       <c r="F35" t="inlineStr"/>
     </row>
@@ -1236,7 +1240,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1258,7 +1262,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1270,7 +1274,7 @@
         <v>4.6</v>
       </c>
       <c r="E37" t="n">
-        <v>3296</v>
+        <v>3298</v>
       </c>
       <c r="F37" t="inlineStr"/>
     </row>
@@ -1280,7 +1284,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-06-26 16:03:50</t>
+          <t>2023-06-26 18:41:30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -547,7 +547,7 @@
         <v>399031</v>
       </c>
       <c r="F5" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>322237</v>
+        <v>320687</v>
       </c>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -662,10 +662,10 @@
         <v>4.8</v>
       </c>
       <c r="E10" t="n">
-        <v>42796</v>
+        <v>42773</v>
       </c>
       <c r="F10" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +674,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -710,10 +710,10 @@
         <v>4.8</v>
       </c>
       <c r="E12" t="n">
-        <v>2010064</v>
+        <v>2003619</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -722,7 +722,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -759,7 +759,7 @@
         <v>258060</v>
       </c>
       <c r="F14" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -768,7 +768,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -782,7 +782,9 @@
       <c r="E15" t="n">
         <v>116043</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -790,7 +792,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -814,7 +816,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -836,7 +838,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -860,7 +862,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -884,7 +886,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -906,7 +908,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -928,7 +930,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -943,7 +945,7 @@
         <v>3161</v>
       </c>
       <c r="F22" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -952,7 +954,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -974,7 +976,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -998,7 +1000,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1020,7 +1022,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1042,7 +1044,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1064,7 +1066,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1086,7 +1088,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1108,7 +1110,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1130,7 +1132,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1152,7 +1154,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1174,7 +1176,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1196,7 +1198,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1218,7 +1220,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1240,7 +1242,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1262,7 +1264,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1284,7 +1286,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-06-26 18:41:30</t>
+          <t>2023-06-26 19:24:51</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -461,12 +461,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GKW</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,17 +480,19 @@
         <v>4.8</v>
       </c>
       <c r="E2" t="n">
-        <v>61742</v>
+        <v>61753</v>
       </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,17 +504,19 @@
         <v>4.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4426</v>
+        <v>4429</v>
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>SAEM</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,12 +533,14 @@
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -544,19 +552,21 @@
         <v>4.6</v>
       </c>
       <c r="E5" t="n">
-        <v>399031</v>
+        <v>399132</v>
       </c>
       <c r="F5" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MV</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,19 +578,21 @@
         <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>4754388</v>
+        <v>4754690</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -592,19 +604,21 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="n">
-        <v>43149</v>
+        <v>43158</v>
       </c>
       <c r="F7" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -616,17 +630,19 @@
         <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>322237</v>
+        <v>322274</v>
       </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TM</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -638,19 +654,21 @@
         <v>4.8</v>
       </c>
       <c r="E9" t="n">
-        <v>2412812</v>
+        <v>2412814</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>XM</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -662,19 +680,21 @@
         <v>4.8</v>
       </c>
       <c r="E10" t="n">
-        <v>42796</v>
+        <v>42795</v>
       </c>
       <c r="F10" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>SNLS</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -686,19 +706,21 @@
         <v>4.7</v>
       </c>
       <c r="E11" t="n">
-        <v>24958</v>
+        <v>24969</v>
       </c>
       <c r="F11" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MSA</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -710,19 +732,21 @@
         <v>4.8</v>
       </c>
       <c r="E12" t="n">
-        <v>2010064</v>
+        <v>2010530</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>MSP</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -734,17 +758,19 @@
         <v>4.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1047309</v>
+        <v>1047308</v>
       </c>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>VMF</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -756,19 +782,21 @@
         <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>258060</v>
+        <v>258086</v>
       </c>
       <c r="F14" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>MCL</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -780,19 +808,21 @@
         <v>4.4</v>
       </c>
       <c r="E15" t="n">
-        <v>116043</v>
+        <v>116054</v>
       </c>
       <c r="F15" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -804,19 +834,21 @@
         <v>4.4</v>
       </c>
       <c r="E16" t="n">
-        <v>77035</v>
+        <v>77100</v>
       </c>
       <c r="F16" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -833,12 +865,14 @@
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>STVA</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -850,19 +884,21 @@
         <v>4.7</v>
       </c>
       <c r="E18" t="n">
-        <v>411629</v>
+        <v>411772</v>
       </c>
       <c r="F18" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>ATT</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -874,19 +910,21 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>3991303</v>
+        <v>3991306</v>
       </c>
       <c r="F19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>SSLG</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -898,17 +936,19 @@
         <v>4.6</v>
       </c>
       <c r="E20" t="n">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>MDCM</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -920,17 +960,19 @@
         <v>3.3</v>
       </c>
       <c r="E21" t="n">
-        <v>6603</v>
+        <v>6605</v>
       </c>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>MM</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -942,19 +984,21 @@
         <v>2.8</v>
       </c>
       <c r="E22" t="n">
-        <v>3161</v>
+        <v>3129</v>
       </c>
       <c r="F22" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>MFR</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -966,19 +1010,21 @@
         <v>4.4</v>
       </c>
       <c r="E23" t="n">
-        <v>45221</v>
+        <v>45222</v>
       </c>
       <c r="F23" t="n">
         <v>195</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>XF</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -990,19 +1036,21 @@
         <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>876975</v>
+        <v>877238</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GFBR</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1014,17 +1062,19 @@
         <v>3.6</v>
       </c>
       <c r="E25" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>MVIA</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1036,17 +1086,19 @@
         <v>4.2</v>
       </c>
       <c r="E26" t="n">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ARM</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1063,12 +1115,14 @@
       <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>ASTRCN</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1085,12 +1139,14 @@
       <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>HUGH</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1107,12 +1163,14 @@
       <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>HTMYA</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1129,12 +1187,14 @@
       <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>MIDCO</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1151,12 +1211,14 @@
       <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>OPTS</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1173,12 +1235,14 @@
       <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>USCELL</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1190,17 +1254,19 @@
         <v>4.4</v>
       </c>
       <c r="E33" t="n">
-        <v>28371</v>
+        <v>28374</v>
       </c>
       <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>SEC</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1217,12 +1283,14 @@
       <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>OPTTV</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1234,17 +1302,19 @@
         <v>4.6</v>
       </c>
       <c r="E35" t="n">
-        <v>13437</v>
+        <v>13443</v>
       </c>
       <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>BRE</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1261,12 +1331,14 @@
       <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>BLUER</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1278,17 +1350,19 @@
         <v>4.6</v>
       </c>
       <c r="E37" t="n">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>BUCK</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,30 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Detail Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>App Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>iOS App Rating</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>iOS Total Reviews</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>iOS Rank</t>
         </is>
@@ -468,21 +473,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Go Kinetic by Windstream</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>4.8</v>
       </c>
-      <c r="E2" t="n">
-        <v>61753</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>61782</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,21 +502,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>My altafiber</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>4.8</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>4429</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -516,21 +531,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Spectrum Access: Enabled Media</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>4.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>123</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -540,22 +560,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Cox App</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4.6</v>
       </c>
-      <c r="E5" t="n">
-        <v>399132</v>
-      </c>
       <c r="F5" t="n">
-        <v>115</v>
+        <v>399238</v>
+      </c>
+      <c r="G5" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -566,21 +591,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>My Verizon</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>4.6</v>
       </c>
-      <c r="E6" t="n">
-        <v>4754690</v>
-      </c>
       <c r="F6" t="n">
+        <v>4754964</v>
+      </c>
+      <c r="G6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -592,22 +622,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>myCricket App</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>4.5</v>
       </c>
-      <c r="E7" t="n">
-        <v>43158</v>
-      </c>
       <c r="F7" t="n">
-        <v>92</v>
+        <v>43165</v>
+      </c>
+      <c r="G7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -618,21 +653,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>MyDISH Account</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>4.6</v>
       </c>
-      <c r="E8" t="n">
-        <v>322274</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>322313</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -642,21 +682,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>T-Mobile</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>4.8</v>
       </c>
-      <c r="E9" t="n">
-        <v>2412814</v>
-      </c>
       <c r="F9" t="n">
+        <v>2412815</v>
+      </c>
+      <c r="G9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -668,22 +713,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Xfinity Mobile</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>4.8</v>
       </c>
-      <c r="E10" t="n">
-        <v>42795</v>
-      </c>
       <c r="F10" t="n">
-        <v>95</v>
+        <v>42797</v>
+      </c>
+      <c r="G10" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -694,22 +744,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Spectrum News: Local Stories</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>4.7</v>
       </c>
-      <c r="E11" t="n">
-        <v>24969</v>
-      </c>
       <c r="F11" t="n">
-        <v>62</v>
+        <v>24983</v>
+      </c>
+      <c r="G11" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -720,22 +775,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>My Spectrum</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>4.8</v>
       </c>
-      <c r="E12" t="n">
-        <v>2010530</v>
-      </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>2011063</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -746,21 +806,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>My Sprint Mobile</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>4.5</v>
       </c>
-      <c r="E13" t="n">
-        <v>1047308</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1047295</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -770,22 +835,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Verizon My Fios</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>4.5</v>
       </c>
-      <c r="E14" t="n">
-        <v>258086</v>
-      </c>
       <c r="F14" t="n">
-        <v>110</v>
+        <v>258123</v>
+      </c>
+      <c r="G14" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -796,22 +866,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>My CenturyLink</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>4.4</v>
       </c>
-      <c r="E15" t="n">
-        <v>116054</v>
-      </c>
       <c r="F15" t="n">
-        <v>193</v>
+        <v>116079</v>
+      </c>
+      <c r="G15" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +897,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Visible mobile</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>4.4</v>
       </c>
-      <c r="E16" t="n">
-        <v>77100</v>
-      </c>
       <c r="F16" t="n">
-        <v>157</v>
+        <v>77175</v>
+      </c>
+      <c r="G16" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -848,21 +928,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>SpectrumU</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>4.3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>175</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -872,21 +957,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Spectrum TV</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>4.7</v>
       </c>
-      <c r="E18" t="n">
-        <v>411772</v>
-      </c>
       <c r="F18" t="n">
+        <v>411836</v>
+      </c>
+      <c r="G18" t="n">
         <v>50</v>
       </c>
     </row>
@@ -898,22 +988,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>myAT&amp;amp;T</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
-        <v>3991306</v>
-      </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>3991292</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -924,21 +1019,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Spectrum SportsNet: Live Games</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>4.6</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>4150</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -948,21 +1048,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>MediacomConnect</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>3.3</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>6605</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -972,22 +1077,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>MyMetro</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>2.8</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>3129</v>
       </c>
-      <c r="F22" t="n">
-        <v>61</v>
+      <c r="G22" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -998,22 +1108,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>MyFrontier</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>4.4</v>
       </c>
-      <c r="E23" t="n">
-        <v>45222</v>
-      </c>
       <c r="F23" t="n">
-        <v>195</v>
+        <v>45223</v>
+      </c>
+      <c r="G23" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -1024,22 +1139,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Xfinity</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>4.4</v>
       </c>
-      <c r="E24" t="n">
-        <v>877238</v>
-      </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>877477</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1050,21 +1170,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Google Fiber</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>3.6</v>
       </c>
-      <c r="E25" t="n">
-        <v>295</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>298</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1074,21 +1199,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>My Viasat</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>4.2</v>
       </c>
-      <c r="E26" t="n">
-        <v>1622</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>1623</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1098,21 +1228,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Armstrong</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>3.7</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>14</v>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1122,21 +1257,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Astound Mobile</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>5</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1146,21 +1286,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>HughesNet Mobile</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>1.8</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>307</v>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1170,21 +1315,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>HT My Account</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1.6</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>20</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1194,21 +1344,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Midco My Account</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>1.3</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>24</v>
       </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1218,21 +1373,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Optimum Support</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>1.4</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1375</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1242,21 +1402,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>UScellular™ – My Account</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>4.4</v>
       </c>
-      <c r="E33" t="n">
-        <v>28374</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>28390</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1266,21 +1431,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>SE Next powered by Tivo</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>2.9</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>8</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1290,21 +1460,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Optimum TV</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>4.6</v>
       </c>
-      <c r="E35" t="n">
-        <v>13443</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>13445</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1314,21 +1489,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>Breezeline TV</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>1.2</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>38</v>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1338,21 +1518,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>My Blue Ridge</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>4.6</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>3300</v>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1362,21 +1547,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>2023-06-27 19:52:58</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>June 27, 2023</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>myBuckeye</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>2.5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>22</v>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-06-27 19:52:58</t>
+          <t>2023-06-27 20:18:12</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +580,7 @@
         <v>399238</v>
       </c>
       <c r="G5" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -591,7 +591,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +642,7 @@
         <v>43165</v>
       </c>
       <c r="G7" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -653,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,7 +702,7 @@
         <v>2412815</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -713,7 +713,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -733,7 +733,7 @@
         <v>42797</v>
       </c>
       <c r="G10" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -744,7 +744,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -764,7 +764,7 @@
         <v>24983</v>
       </c>
       <c r="G11" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -775,7 +775,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -855,7 +855,7 @@
         <v>258123</v>
       </c>
       <c r="G14" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -866,7 +866,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -886,7 +886,7 @@
         <v>116079</v>
       </c>
       <c r="G15" t="n">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -897,7 +897,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>77175</v>
       </c>
       <c r="G16" t="n">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
@@ -928,7 +928,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1008,7 +1008,7 @@
         <v>3991292</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1038,7 +1038,9 @@
       <c r="F20" t="n">
         <v>4150</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1048,7 +1050,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1077,7 +1079,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1097,7 +1099,7 @@
         <v>3129</v>
       </c>
       <c r="G22" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -1108,7 +1110,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1128,7 +1130,7 @@
         <v>45223</v>
       </c>
       <c r="G23" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
@@ -1139,7 +1141,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1170,7 +1172,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1199,7 +1201,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1228,7 +1230,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1257,7 +1259,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1286,7 +1288,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1315,7 +1317,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1344,7 +1346,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1373,7 +1375,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1402,7 +1404,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1431,7 +1433,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1460,7 +1462,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1489,7 +1491,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1518,7 +1520,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1547,7 +1549,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-06-27 20:18:12</t>
+          <t>2023-06-27 22:30:24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">

--- a/iOSratings.xlsx
+++ b/iOSratings.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
         <v>4.8</v>
       </c>
       <c r="F2" t="n">
-        <v>61782</v>
+        <v>61798</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -502,12 +502,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -577,10 +577,10 @@
         <v>4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>399238</v>
+        <v>399366</v>
       </c>
       <c r="G5" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -591,12 +591,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -608,7 +608,7 @@
         <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4754964</v>
+        <v>4755313</v>
       </c>
       <c r="G6" t="n">
         <v>9</v>
@@ -622,12 +622,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,10 +639,10 @@
         <v>4.5</v>
       </c>
       <c r="F7" t="n">
-        <v>43165</v>
+        <v>43177</v>
       </c>
       <c r="G7" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -653,12 +653,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -670,7 +670,7 @@
         <v>4.6</v>
       </c>
       <c r="F8" t="n">
-        <v>322313</v>
+        <v>322339</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -699,10 +699,10 @@
         <v>4.8</v>
       </c>
       <c r="F9" t="n">
-        <v>2412815</v>
+        <v>2412836</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -713,12 +713,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -730,10 +730,10 @@
         <v>4.8</v>
       </c>
       <c r="F10" t="n">
-        <v>42797</v>
+        <v>42793</v>
       </c>
       <c r="G10" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -744,12 +744,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -761,10 +761,10 @@
         <v>4.7</v>
       </c>
       <c r="F11" t="n">
-        <v>24983</v>
+        <v>24997</v>
       </c>
       <c r="G11" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -775,12 +775,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -792,7 +792,7 @@
         <v>4.8</v>
       </c>
       <c r="F12" t="n">
-        <v>2011063</v>
+        <v>2011630</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
@@ -806,12 +806,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -823,7 +823,7 @@
         <v>4.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1047295</v>
+        <v>1047294</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -835,12 +835,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -852,10 +852,10 @@
         <v>4.5</v>
       </c>
       <c r="F14" t="n">
-        <v>258123</v>
+        <v>258155</v>
       </c>
       <c r="G14" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -866,12 +866,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -883,10 +883,10 @@
         <v>4.4</v>
       </c>
       <c r="F15" t="n">
-        <v>116079</v>
+        <v>116111</v>
       </c>
       <c r="G15" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -897,12 +897,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -914,10 +914,10 @@
         <v>4.4</v>
       </c>
       <c r="F16" t="n">
-        <v>77175</v>
+        <v>77293</v>
       </c>
       <c r="G16" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -928,12 +928,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -974,10 +974,10 @@
         <v>4.7</v>
       </c>
       <c r="F18" t="n">
-        <v>411836</v>
+        <v>411965</v>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -988,12 +988,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1005,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>3991292</v>
+        <v>3991280</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1039,7 +1039,7 @@
         <v>4150</v>
       </c>
       <c r="G20" t="n">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1099,7 +1099,7 @@
         <v>3129</v>
       </c>
       <c r="G22" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1130,7 +1130,7 @@
         <v>45223</v>
       </c>
       <c r="G23" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1158,7 +1158,7 @@
         <v>4.4</v>
       </c>
       <c r="F24" t="n">
-        <v>877477</v>
+        <v>877815</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1189,7 +1189,7 @@
         <v>3.6</v>
       </c>
       <c r="F25" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G25" t="inlineStr"/>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1218,7 +1218,7 @@
         <v>4.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -1230,12 +1230,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1317,12 +1317,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1392,7 +1392,7 @@
         <v>1.4</v>
       </c>
       <c r="F32" t="n">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G32" t="inlineStr"/>
     </row>
@@ -1404,12 +1404,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1421,7 +1421,7 @@
         <v>4.4</v>
       </c>
       <c r="F33" t="n">
-        <v>28390</v>
+        <v>28397</v>
       </c>
       <c r="G33" t="inlineStr"/>
     </row>
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" t="inlineStr"/>
     </row>
@@ -1462,12 +1462,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1479,7 +1479,7 @@
         <v>4.6</v>
       </c>
       <c r="F35" t="n">
-        <v>13445</v>
+        <v>13446</v>
       </c>
       <c r="G35" t="inlineStr"/>
     </row>
@@ -1491,12 +1491,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-06-27 22:30:24</t>
+          <t>2023-06-28 10:50:42</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
